--- a/stock_predictor_ai/data/cleaned/PANW.xlsx
+++ b/stock_predictor_ai/data/cleaned/PANW.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3248"/>
+  <dimension ref="A1:F3249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65409,6 +65409,26 @@
         <v>489664</v>
       </c>
     </row>
+    <row r="3249">
+      <c r="A3249" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3249" t="n">
+        <v>205.1649932861328</v>
+      </c>
+      <c r="C3249" t="n">
+        <v>205.3600006103516</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>202.4299926757812</v>
+      </c>
+      <c r="E3249" t="n">
+        <v>204.8849945068359</v>
+      </c>
+      <c r="F3249" t="n">
+        <v>273291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PANW.xlsx
+++ b/stock_predictor_ai/data/cleaned/PANW.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3249"/>
+  <dimension ref="A1:F3250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65429,6 +65429,26 @@
         <v>273291</v>
       </c>
     </row>
+    <row r="3250">
+      <c r="A3250" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3250" t="n">
+        <v>192.25</v>
+      </c>
+      <c r="C3250" t="n">
+        <v>193.5200042724609</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>190.1999969482422</v>
+      </c>
+      <c r="E3250" t="n">
+        <v>190.7100067138672</v>
+      </c>
+      <c r="F3250" t="n">
+        <v>3961200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PANW.xlsx
+++ b/stock_predictor_ai/data/cleaned/PANW.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3250"/>
+  <dimension ref="A1:F3251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65449,6 +65449,26 @@
         <v>3961200</v>
       </c>
     </row>
+    <row r="3251">
+      <c r="A3251" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3251" t="n">
+        <v>199.2200012207031</v>
+      </c>
+      <c r="C3251" t="n">
+        <v>200.8999938964844</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>194.6000061035156</v>
+      </c>
+      <c r="E3251" t="n">
+        <v>195.8800048828125</v>
+      </c>
+      <c r="F3251" t="n">
+        <v>1178111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PANW.xlsx
+++ b/stock_predictor_ai/data/cleaned/PANW.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3251"/>
+  <dimension ref="A1:F3252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65469,6 +65469,26 @@
         <v>1178111</v>
       </c>
     </row>
+    <row r="3252">
+      <c r="A3252" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3252" t="n">
+        <v>191.4799957275391</v>
+      </c>
+      <c r="C3252" t="n">
+        <v>191.4799957275391</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="E3252" t="n">
+        <v>187.6399993896484</v>
+      </c>
+      <c r="F3252" t="n">
+        <v>3898547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PANW.xlsx
+++ b/stock_predictor_ai/data/cleaned/PANW.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3252"/>
+  <dimension ref="A1:F3247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65389,106 +65391,6 @@
         <v>4129800</v>
       </c>
     </row>
-    <row r="3248">
-      <c r="A3248" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3248" t="n">
-        <v>201.6000061035156</v>
-      </c>
-      <c r="C3248" t="n">
-        <v>201.6999969482422</v>
-      </c>
-      <c r="D3248" t="n">
-        <v>197.8549957275391</v>
-      </c>
-      <c r="E3248" t="n">
-        <v>197.8549957275391</v>
-      </c>
-      <c r="F3248" t="n">
-        <v>489664</v>
-      </c>
-    </row>
-    <row r="3249">
-      <c r="A3249" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3249" t="n">
-        <v>205.1649932861328</v>
-      </c>
-      <c r="C3249" t="n">
-        <v>205.3600006103516</v>
-      </c>
-      <c r="D3249" t="n">
-        <v>202.4299926757812</v>
-      </c>
-      <c r="E3249" t="n">
-        <v>204.8849945068359</v>
-      </c>
-      <c r="F3249" t="n">
-        <v>273291</v>
-      </c>
-    </row>
-    <row r="3250">
-      <c r="A3250" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3250" t="n">
-        <v>192.25</v>
-      </c>
-      <c r="C3250" t="n">
-        <v>193.5200042724609</v>
-      </c>
-      <c r="D3250" t="n">
-        <v>190.1999969482422</v>
-      </c>
-      <c r="E3250" t="n">
-        <v>190.7100067138672</v>
-      </c>
-      <c r="F3250" t="n">
-        <v>3961200</v>
-      </c>
-    </row>
-    <row r="3251">
-      <c r="A3251" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3251" t="n">
-        <v>199.2200012207031</v>
-      </c>
-      <c r="C3251" t="n">
-        <v>200.8999938964844</v>
-      </c>
-      <c r="D3251" t="n">
-        <v>194.6000061035156</v>
-      </c>
-      <c r="E3251" t="n">
-        <v>195.8800048828125</v>
-      </c>
-      <c r="F3251" t="n">
-        <v>1178111</v>
-      </c>
-    </row>
-    <row r="3252">
-      <c r="A3252" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3252" t="n">
-        <v>191.4799957275391</v>
-      </c>
-      <c r="C3252" t="n">
-        <v>191.4799957275391</v>
-      </c>
-      <c r="D3252" t="n">
-        <v>186.3500061035156</v>
-      </c>
-      <c r="E3252" t="n">
-        <v>187.6399993896484</v>
-      </c>
-      <c r="F3252" t="n">
-        <v>3898547</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
